--- a/rosters/2023/Memphis/Memphis.xlsx
+++ b/rosters/2023/Memphis/Memphis.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="100">
   <si>
     <t>No.</t>
   </si>
@@ -52,49 +52,49 @@
     <t>Santi Aldama</t>
   </si>
   <si>
+    <t>Dillon Brooks</t>
+  </si>
+  <si>
+    <t>Brandon Clarke</t>
+  </si>
+  <si>
     <t>John Konchar</t>
   </si>
   <si>
-    <t>Dillon Brooks</t>
+    <t>Ja Morant</t>
+  </si>
+  <si>
+    <t>David Roddy</t>
   </si>
   <si>
     <t>Steven Adams</t>
   </si>
   <si>
-    <t>David Roddy</t>
-  </si>
-  <si>
-    <t>Brandon Clarke</t>
-  </si>
-  <si>
-    <t>Ja Morant</t>
-  </si>
-  <si>
     <t>Jaren Jackson Jr.</t>
   </si>
   <si>
     <t>Xavier Tillman Sr.</t>
   </si>
   <si>
+    <t>Desmond Bane</t>
+  </si>
+  <si>
     <t>Jake LaRavia</t>
   </si>
   <si>
-    <t>Desmond Bane</t>
+    <t>Ziaire Williams</t>
   </si>
   <si>
     <t>Kennedy Chandler</t>
   </si>
   <si>
-    <t>Ziaire Williams</t>
-  </si>
-  <si>
     <t>Vince Williams Jr. (TW)</t>
   </si>
   <si>
     <t>Kenneth Lofton Jr. (TW)</t>
   </si>
   <si>
-    <t>Danny Green</t>
+    <t>Luke Kennard</t>
   </si>
   <si>
     <t>PG</t>
@@ -103,12 +103,12 @@
     <t>PF</t>
   </si>
   <si>
+    <t>SF</t>
+  </si>
+  <si>
     <t>SG</t>
   </si>
   <si>
-    <t>SF</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
@@ -118,70 +118,70 @@
     <t>6-11</t>
   </si>
   <si>
+    <t>6-7</t>
+  </si>
+  <si>
+    <t>6-8</t>
+  </si>
+  <si>
     <t>6-5</t>
   </si>
   <si>
-    <t>6-7</t>
+    <t>6-3</t>
   </si>
   <si>
     <t>6-6</t>
   </si>
   <si>
-    <t>6-8</t>
-  </si>
-  <si>
-    <t>6-3</t>
-  </si>
-  <si>
     <t>May 10, 1996</t>
   </si>
   <si>
     <t>January 10, 2001</t>
   </si>
   <si>
+    <t>January 22, 1996</t>
+  </si>
+  <si>
+    <t>September 19, 1996</t>
+  </si>
+  <si>
     <t>March 22, 1996</t>
   </si>
   <si>
-    <t>January 22, 1996</t>
+    <t>August 10, 1999</t>
+  </si>
+  <si>
+    <t>March 27, 2001</t>
   </si>
   <si>
     <t>July 20, 1993</t>
   </si>
   <si>
-    <t>March 27, 2001</t>
-  </si>
-  <si>
-    <t>September 19, 1996</t>
-  </si>
-  <si>
-    <t>August 10, 1999</t>
-  </si>
-  <si>
     <t>September 15, 1999</t>
   </si>
   <si>
     <t>January 12, 1999</t>
   </si>
   <si>
+    <t>June 25, 1998</t>
+  </si>
+  <si>
     <t>November 3, 2001</t>
   </si>
   <si>
-    <t>June 25, 1998</t>
+    <t>September 12, 2001</t>
   </si>
   <si>
     <t>September 16, 2002</t>
   </si>
   <si>
-    <t>September 12, 2001</t>
-  </si>
-  <si>
     <t>August 30, 2000</t>
   </si>
   <si>
     <t>August 14, 2002</t>
   </si>
   <si>
-    <t>June 22, 1987</t>
+    <t>June 24, 1996</t>
   </si>
   <si>
     <t>us</t>
@@ -202,124 +202,118 @@
     <t>1</t>
   </si>
   <si>
+    <t>5</t>
+  </si>
+  <si>
     <t>3</t>
   </si>
   <si>
-    <t>5</t>
+    <t>R</t>
   </si>
   <si>
     <t>9</t>
   </si>
   <si>
-    <t>R</t>
-  </si>
-  <si>
     <t>4</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>13</t>
-  </si>
-  <si>
     <t>Duke</t>
   </si>
   <si>
     <t>Loyola (MD)</t>
   </si>
   <si>
+    <t>Oregon</t>
+  </si>
+  <si>
+    <t>San Jose State, Gonzaga</t>
+  </si>
+  <si>
     <t>Purdue-Fort Wayne</t>
   </si>
   <si>
-    <t>Oregon</t>
+    <t>Murray State</t>
+  </si>
+  <si>
+    <t>Colorado State</t>
   </si>
   <si>
     <t>Pitt</t>
   </si>
   <si>
-    <t>Colorado State</t>
-  </si>
-  <si>
-    <t>San Jose State, Gonzaga</t>
-  </si>
-  <si>
-    <t>Murray State</t>
-  </si>
-  <si>
     <t>Michigan State</t>
   </si>
   <si>
+    <t>TCU</t>
+  </si>
+  <si>
     <t>Indiana State University, Wake Forest</t>
   </si>
   <si>
-    <t>TCU</t>
+    <t>Stanford</t>
   </si>
   <si>
     <t>Tennessee</t>
   </si>
   <si>
-    <t>Stanford</t>
-  </si>
-  <si>
     <t>VCU</t>
   </si>
   <si>
     <t>Louisiana Tech</t>
   </si>
   <si>
-    <t>UNC</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/j/jonesty01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/a/aldamsa01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/b/brookdi01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/c/clarkbr01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/k/konchjo01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/b/brookdi01.html</t>
+    <t>https://www.basketball-reference.com/players/m/moranja01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/r/roddyda01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/a/adamsst01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/r/roddyda01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/c/clarkbr01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/m/moranja01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/j/jacksja02.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/t/tillmxa01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/b/banede01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/l/laravja01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/b/banede01.html</t>
+    <t>https://www.basketball-reference.com/players/w/willizi02.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/c/chandke01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/w/willizi02.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/w/willivi01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/l/loftoke01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/g/greenda02.html</t>
+    <t>https://www.basketball-reference.com/players/k/kennalu01.html</t>
   </si>
 </sst>
 </file>
@@ -757,10 +751,10 @@
         <v>60</v>
       </c>
       <c r="J2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -792,10 +786,10 @@
         <v>61</v>
       </c>
       <c r="J3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -803,7 +797,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
@@ -815,22 +809,22 @@
         <v>34</v>
       </c>
       <c r="F4">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="G4" t="s">
         <v>41</v>
       </c>
       <c r="H4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I4" t="s">
         <v>62</v>
       </c>
       <c r="J4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -838,19 +832,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E5" t="s">
         <v>35</v>
       </c>
       <c r="F5">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="G5" t="s">
         <v>42</v>
@@ -862,10 +856,10 @@
         <v>63</v>
       </c>
       <c r="J5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -873,34 +867,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F6">
-        <v>265</v>
+        <v>210</v>
       </c>
       <c r="G6" t="s">
         <v>43</v>
       </c>
       <c r="H6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -908,19 +902,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F7">
-        <v>255</v>
+        <v>174</v>
       </c>
       <c r="G7" t="s">
         <v>44</v>
@@ -929,13 +923,13 @@
         <v>56</v>
       </c>
       <c r="I7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -943,7 +937,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
@@ -952,25 +946,25 @@
         <v>28</v>
       </c>
       <c r="E8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F8">
-        <v>215</v>
+        <v>255</v>
       </c>
       <c r="G8" t="s">
         <v>45</v>
       </c>
       <c r="H8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -978,34 +972,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F9">
-        <v>174</v>
+        <v>265</v>
       </c>
       <c r="G9" t="s">
         <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I9" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1037,10 +1031,10 @@
         <v>66</v>
       </c>
       <c r="J10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1057,7 +1051,7 @@
         <v>28</v>
       </c>
       <c r="E11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F11">
         <v>245</v>
@@ -1072,10 +1066,10 @@
         <v>67</v>
       </c>
       <c r="J11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1083,19 +1077,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
         <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F12">
-        <v>235</v>
+        <v>215</v>
       </c>
       <c r="G12" t="s">
         <v>49</v>
@@ -1104,13 +1098,13 @@
         <v>56</v>
       </c>
       <c r="I12" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1118,19 +1112,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="C13" t="s">
         <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F13">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="G13" t="s">
         <v>50</v>
@@ -1139,13 +1133,13 @@
         <v>56</v>
       </c>
       <c r="I13" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="J13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1153,19 +1147,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
         <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E14" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F14">
-        <v>171</v>
+        <v>215</v>
       </c>
       <c r="G14" t="s">
         <v>51</v>
@@ -1174,13 +1168,13 @@
         <v>56</v>
       </c>
       <c r="I14" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="J14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1188,19 +1182,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C15" t="s">
         <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E15" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F15">
-        <v>215</v>
+        <v>171</v>
       </c>
       <c r="G15" t="s">
         <v>52</v>
@@ -1209,13 +1203,13 @@
         <v>56</v>
       </c>
       <c r="I15" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1229,10 +1223,10 @@
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E16" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F16">
         <v>205</v>
@@ -1244,13 +1238,13 @@
         <v>56</v>
       </c>
       <c r="I16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1267,7 +1261,7 @@
         <v>28</v>
       </c>
       <c r="E17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F17">
         <v>275</v>
@@ -1279,13 +1273,13 @@
         <v>56</v>
       </c>
       <c r="I17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1296,13 +1290,13 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E18" t="s">
         <v>36</v>
       </c>
       <c r="F18">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="G18" t="s">
         <v>55</v>
@@ -1311,13 +1305,13 @@
         <v>56</v>
       </c>
       <c r="I18" t="s">
+        <v>62</v>
+      </c>
+      <c r="J18" t="s">
         <v>68</v>
       </c>
-      <c r="J18" t="s">
-        <v>84</v>
-      </c>
       <c r="K18" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/rosters/2023/Memphis/Memphis.xlsx
+++ b/rosters/2023/Memphis/Memphis.xlsx
@@ -55,45 +55,45 @@
     <t>Dillon Brooks</t>
   </si>
   <si>
+    <t>John Konchar</t>
+  </si>
+  <si>
     <t>Brandon Clarke</t>
   </si>
   <si>
-    <t>John Konchar</t>
-  </si>
-  <si>
     <t>Ja Morant</t>
   </si>
   <si>
     <t>David Roddy</t>
   </si>
   <si>
+    <t>Jaren Jackson Jr.</t>
+  </si>
+  <si>
+    <t>Xavier Tillman Sr.</t>
+  </si>
+  <si>
+    <t>Desmond Bane</t>
+  </si>
+  <si>
     <t>Steven Adams</t>
   </si>
   <si>
-    <t>Jaren Jackson Jr.</t>
-  </si>
-  <si>
-    <t>Xavier Tillman Sr.</t>
-  </si>
-  <si>
-    <t>Desmond Bane</t>
+    <t>Ziaire Williams</t>
   </si>
   <si>
     <t>Jake LaRavia</t>
   </si>
   <si>
-    <t>Ziaire Williams</t>
-  </si>
-  <si>
     <t>Kennedy Chandler</t>
   </si>
   <si>
+    <t>Kenneth Lofton Jr. (TW)</t>
+  </si>
+  <si>
     <t>Vince Williams Jr. (TW)</t>
   </si>
   <si>
-    <t>Kenneth Lofton Jr. (TW)</t>
-  </si>
-  <si>
     <t>Luke Kennard</t>
   </si>
   <si>
@@ -121,12 +121,12 @@
     <t>6-7</t>
   </si>
   <si>
+    <t>6-5</t>
+  </si>
+  <si>
     <t>6-8</t>
   </si>
   <si>
-    <t>6-5</t>
-  </si>
-  <si>
     <t>6-3</t>
   </si>
   <si>
@@ -142,45 +142,45 @@
     <t>January 22, 1996</t>
   </si>
   <si>
+    <t>March 22, 1996</t>
+  </si>
+  <si>
     <t>September 19, 1996</t>
   </si>
   <si>
-    <t>March 22, 1996</t>
-  </si>
-  <si>
     <t>August 10, 1999</t>
   </si>
   <si>
     <t>March 27, 2001</t>
   </si>
   <si>
+    <t>September 15, 1999</t>
+  </si>
+  <si>
+    <t>January 12, 1999</t>
+  </si>
+  <si>
+    <t>June 25, 1998</t>
+  </si>
+  <si>
     <t>July 20, 1993</t>
   </si>
   <si>
-    <t>September 15, 1999</t>
-  </si>
-  <si>
-    <t>January 12, 1999</t>
-  </si>
-  <si>
-    <t>June 25, 1998</t>
+    <t>September 12, 2001</t>
   </si>
   <si>
     <t>November 3, 2001</t>
   </si>
   <si>
-    <t>September 12, 2001</t>
-  </si>
-  <si>
     <t>September 16, 2002</t>
   </si>
   <si>
+    <t>August 14, 2002</t>
+  </si>
+  <si>
     <t>August 30, 2000</t>
   </si>
   <si>
-    <t>August 14, 2002</t>
-  </si>
-  <si>
     <t>June 24, 1996</t>
   </si>
   <si>
@@ -211,15 +211,15 @@
     <t>R</t>
   </si>
   <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>9</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>Duke</t>
   </si>
   <si>
@@ -229,42 +229,42 @@
     <t>Oregon</t>
   </si>
   <si>
+    <t>Purdue-Fort Wayne</t>
+  </si>
+  <si>
     <t>San Jose State, Gonzaga</t>
   </si>
   <si>
-    <t>Purdue-Fort Wayne</t>
-  </si>
-  <si>
     <t>Murray State</t>
   </si>
   <si>
     <t>Colorado State</t>
   </si>
   <si>
+    <t>Michigan State</t>
+  </si>
+  <si>
+    <t>TCU</t>
+  </si>
+  <si>
     <t>Pitt</t>
   </si>
   <si>
-    <t>Michigan State</t>
-  </si>
-  <si>
-    <t>TCU</t>
+    <t>Stanford</t>
   </si>
   <si>
     <t>Indiana State University, Wake Forest</t>
   </si>
   <si>
-    <t>Stanford</t>
-  </si>
-  <si>
     <t>Tennessee</t>
   </si>
   <si>
+    <t>Louisiana Tech</t>
+  </si>
+  <si>
     <t>VCU</t>
   </si>
   <si>
-    <t>Louisiana Tech</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/j/jonesty01.html</t>
   </si>
   <si>
@@ -274,43 +274,43 @@
     <t>https://www.basketball-reference.com/players/b/brookdi01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/k/konchjo01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/c/clarkbr01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/k/konchjo01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/m/moranja01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/r/roddyda01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/j/jacksja02.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/t/tillmxa01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/b/banede01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/a/adamsst01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/j/jacksja02.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/t/tillmxa01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/b/banede01.html</t>
+    <t>https://www.basketball-reference.com/players/w/willizi02.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/l/laravja01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/w/willizi02.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/c/chandke01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/l/loftoke01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/w/willivi01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/l/loftoke01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/k/kennalu01.html</t>
@@ -832,25 +832,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E5" t="s">
         <v>35</v>
       </c>
       <c r="F5">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="G5" t="s">
         <v>42</v>
       </c>
       <c r="H5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I5" t="s">
         <v>63</v>
@@ -867,25 +867,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s">
         <v>36</v>
       </c>
       <c r="F6">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="G6" t="s">
         <v>43</v>
       </c>
       <c r="H6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I6" t="s">
         <v>63</v>
@@ -972,7 +972,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
@@ -984,13 +984,13 @@
         <v>33</v>
       </c>
       <c r="F9">
-        <v>265</v>
+        <v>242</v>
       </c>
       <c r="G9" t="s">
         <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I9" t="s">
         <v>65</v>
@@ -1007,19 +1007,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E10" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F10">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="G10" t="s">
         <v>47</v>
@@ -1031,7 +1031,7 @@
         <v>66</v>
       </c>
       <c r="J10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>91</v>
@@ -1042,19 +1042,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
         <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E11" t="s">
         <v>35</v>
       </c>
       <c r="F11">
-        <v>245</v>
+        <v>215</v>
       </c>
       <c r="G11" t="s">
         <v>48</v>
@@ -1063,7 +1063,7 @@
         <v>56</v>
       </c>
       <c r="I11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J11" t="s">
         <v>76</v>
@@ -1077,25 +1077,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="C12" t="s">
         <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E12" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F12">
-        <v>215</v>
+        <v>265</v>
       </c>
       <c r="G12" t="s">
         <v>49</v>
       </c>
       <c r="H12" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I12" t="s">
         <v>67</v>
@@ -1112,19 +1112,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
         <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F13">
-        <v>235</v>
+        <v>215</v>
       </c>
       <c r="G13" t="s">
         <v>50</v>
@@ -1133,7 +1133,7 @@
         <v>56</v>
       </c>
       <c r="I13" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="J13" t="s">
         <v>78</v>
@@ -1147,19 +1147,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C14" t="s">
         <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F14">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="G14" t="s">
         <v>51</v>
@@ -1168,7 +1168,7 @@
         <v>56</v>
       </c>
       <c r="I14" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J14" t="s">
         <v>79</v>
@@ -1217,19 +1217,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C16" t="s">
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E16" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F16">
-        <v>205</v>
+        <v>275</v>
       </c>
       <c r="G16" t="s">
         <v>53</v>
@@ -1252,19 +1252,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C17" t="s">
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E17" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F17">
-        <v>275</v>
+        <v>205</v>
       </c>
       <c r="G17" t="s">
         <v>54</v>
@@ -1286,6 +1286,9 @@
       <c r="A18" s="1">
         <v>16</v>
       </c>
+      <c r="B18">
+        <v>10</v>
+      </c>
       <c r="C18" t="s">
         <v>26</v>
       </c>
@@ -1293,7 +1296,7 @@
         <v>30</v>
       </c>
       <c r="E18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F18">
         <v>206</v>

--- a/rosters/2023/Memphis/Memphis.xlsx
+++ b/rosters/2023/Memphis/Memphis.xlsx
@@ -61,12 +61,12 @@
     <t>Brandon Clarke</t>
   </si>
   <si>
+    <t>David Roddy</t>
+  </si>
+  <si>
     <t>Ja Morant</t>
   </si>
   <si>
-    <t>David Roddy</t>
-  </si>
-  <si>
     <t>Jaren Jackson Jr.</t>
   </si>
   <si>
@@ -127,12 +127,12 @@
     <t>6-8</t>
   </si>
   <si>
+    <t>6-6</t>
+  </si>
+  <si>
     <t>6-3</t>
   </si>
   <si>
-    <t>6-6</t>
-  </si>
-  <si>
     <t>May 10, 1996</t>
   </si>
   <si>
@@ -148,12 +148,12 @@
     <t>September 19, 1996</t>
   </si>
   <si>
+    <t>March 27, 2001</t>
+  </si>
+  <si>
     <t>August 10, 1999</t>
   </si>
   <si>
-    <t>March 27, 2001</t>
-  </si>
-  <si>
     <t>September 15, 1999</t>
   </si>
   <si>
@@ -235,12 +235,12 @@
     <t>San Jose State, Gonzaga</t>
   </si>
   <si>
+    <t>Colorado State</t>
+  </si>
+  <si>
     <t>Murray State</t>
   </si>
   <si>
-    <t>Colorado State</t>
-  </si>
-  <si>
     <t>Michigan State</t>
   </si>
   <si>
@@ -280,10 +280,10 @@
     <t>https://www.basketball-reference.com/players/c/clarkbr01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/r/roddyda01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/m/moranja01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/r/roddyda01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/j/jacksja02.html</t>
@@ -902,19 +902,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E7" t="s">
         <v>37</v>
       </c>
       <c r="F7">
-        <v>174</v>
+        <v>255</v>
       </c>
       <c r="G7" t="s">
         <v>44</v>
@@ -923,7 +923,7 @@
         <v>56</v>
       </c>
       <c r="I7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J7" t="s">
         <v>73</v>
@@ -937,19 +937,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E8" t="s">
         <v>38</v>
       </c>
       <c r="F8">
-        <v>255</v>
+        <v>174</v>
       </c>
       <c r="G8" t="s">
         <v>45</v>
@@ -958,7 +958,7 @@
         <v>56</v>
       </c>
       <c r="I8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J8" t="s">
         <v>74</v>
@@ -1261,7 +1261,7 @@
         <v>30</v>
       </c>
       <c r="E17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F17">
         <v>205</v>

--- a/rosters/2023/Memphis/Memphis.xlsx
+++ b/rosters/2023/Memphis/Memphis.xlsx
@@ -58,18 +58,18 @@
     <t>John Konchar</t>
   </si>
   <si>
+    <t>David Roddy</t>
+  </si>
+  <si>
     <t>Brandon Clarke</t>
   </si>
   <si>
-    <t>David Roddy</t>
+    <t>Jaren Jackson Jr.</t>
   </si>
   <si>
     <t>Ja Morant</t>
   </si>
   <si>
-    <t>Jaren Jackson Jr.</t>
-  </si>
-  <si>
     <t>Xavier Tillman Sr.</t>
   </si>
   <si>
@@ -91,12 +91,12 @@
     <t>Kenneth Lofton Jr. (TW)</t>
   </si>
   <si>
+    <t>Luke Kennard</t>
+  </si>
+  <si>
     <t>Vince Williams Jr. (TW)</t>
   </si>
   <si>
-    <t>Luke Kennard</t>
-  </si>
-  <si>
     <t>PG</t>
   </si>
   <si>
@@ -124,12 +124,12 @@
     <t>6-5</t>
   </si>
   <si>
+    <t>6-6</t>
+  </si>
+  <si>
     <t>6-8</t>
   </si>
   <si>
-    <t>6-6</t>
-  </si>
-  <si>
     <t>6-3</t>
   </si>
   <si>
@@ -145,18 +145,18 @@
     <t>March 22, 1996</t>
   </si>
   <si>
+    <t>March 27, 2001</t>
+  </si>
+  <si>
     <t>September 19, 1996</t>
   </si>
   <si>
-    <t>March 27, 2001</t>
+    <t>September 15, 1999</t>
   </si>
   <si>
     <t>August 10, 1999</t>
   </si>
   <si>
-    <t>September 15, 1999</t>
-  </si>
-  <si>
     <t>January 12, 1999</t>
   </si>
   <si>
@@ -178,12 +178,12 @@
     <t>August 14, 2002</t>
   </si>
   <si>
+    <t>June 24, 1996</t>
+  </si>
+  <si>
     <t>August 30, 2000</t>
   </si>
   <si>
-    <t>June 24, 1996</t>
-  </si>
-  <si>
     <t>us</t>
   </si>
   <si>
@@ -232,18 +232,18 @@
     <t>Purdue-Fort Wayne</t>
   </si>
   <si>
+    <t>Colorado State</t>
+  </si>
+  <si>
     <t>San Jose State, Gonzaga</t>
   </si>
   <si>
-    <t>Colorado State</t>
+    <t>Michigan State</t>
   </si>
   <si>
     <t>Murray State</t>
   </si>
   <si>
-    <t>Michigan State</t>
-  </si>
-  <si>
     <t>TCU</t>
   </si>
   <si>
@@ -277,18 +277,18 @@
     <t>https://www.basketball-reference.com/players/k/konchjo01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/r/roddyda01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/c/clarkbr01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/r/roddyda01.html</t>
+    <t>https://www.basketball-reference.com/players/j/jacksja02.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/m/moranja01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/j/jacksja02.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/t/tillmxa01.html</t>
   </si>
   <si>
@@ -310,10 +310,10 @@
     <t>https://www.basketball-reference.com/players/l/loftoke01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/k/kennalu01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/w/willivi01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/k/kennalu01.html</t>
   </si>
 </sst>
 </file>
@@ -867,7 +867,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
@@ -879,16 +879,16 @@
         <v>36</v>
       </c>
       <c r="F6">
-        <v>215</v>
+        <v>255</v>
       </c>
       <c r="G6" t="s">
         <v>43</v>
       </c>
       <c r="H6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J6" t="s">
         <v>72</v>
@@ -902,7 +902,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
@@ -914,16 +914,16 @@
         <v>37</v>
       </c>
       <c r="F7">
-        <v>255</v>
+        <v>215</v>
       </c>
       <c r="G7" t="s">
         <v>44</v>
       </c>
       <c r="H7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J7" t="s">
         <v>73</v>
@@ -937,19 +937,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E8" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F8">
-        <v>174</v>
+        <v>242</v>
       </c>
       <c r="G8" t="s">
         <v>45</v>
@@ -958,7 +958,7 @@
         <v>56</v>
       </c>
       <c r="I8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J8" t="s">
         <v>74</v>
@@ -972,19 +972,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E9" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F9">
-        <v>242</v>
+        <v>174</v>
       </c>
       <c r="G9" t="s">
         <v>46</v>
@@ -993,7 +993,7 @@
         <v>56</v>
       </c>
       <c r="I9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J9" t="s">
         <v>75</v>
@@ -1016,7 +1016,7 @@
         <v>28</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F10">
         <v>245</v>
@@ -1031,7 +1031,7 @@
         <v>66</v>
       </c>
       <c r="J10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>91</v>
@@ -1121,7 +1121,7 @@
         <v>29</v>
       </c>
       <c r="E13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F13">
         <v>215</v>
@@ -1156,7 +1156,7 @@
         <v>28</v>
       </c>
       <c r="E14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F14">
         <v>235</v>
@@ -1252,7 +1252,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C17" t="s">
         <v>25</v>
@@ -1261,10 +1261,10 @@
         <v>30</v>
       </c>
       <c r="E17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F17">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G17" t="s">
         <v>54</v>
@@ -1273,10 +1273,10 @@
         <v>56</v>
       </c>
       <c r="I17" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J17" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>98</v>
@@ -1287,7 +1287,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C18" t="s">
         <v>26</v>
@@ -1296,10 +1296,10 @@
         <v>30</v>
       </c>
       <c r="E18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F18">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G18" t="s">
         <v>55</v>
@@ -1308,10 +1308,10 @@
         <v>56</v>
       </c>
       <c r="I18" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J18" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="K18" s="2" t="s">
         <v>99</v>

--- a/rosters/2023/Memphis/Memphis.xlsx
+++ b/rosters/2023/Memphis/Memphis.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="101">
   <si>
     <t>No.</t>
   </si>
@@ -61,21 +61,21 @@
     <t>David Roddy</t>
   </si>
   <si>
+    <t>Jaren Jackson Jr.</t>
+  </si>
+  <si>
+    <t>Ja Morant</t>
+  </si>
+  <si>
+    <t>Xavier Tillman Sr.</t>
+  </si>
+  <si>
+    <t>Desmond Bane</t>
+  </si>
+  <si>
     <t>Brandon Clarke</t>
   </si>
   <si>
-    <t>Jaren Jackson Jr.</t>
-  </si>
-  <si>
-    <t>Ja Morant</t>
-  </si>
-  <si>
-    <t>Xavier Tillman Sr.</t>
-  </si>
-  <si>
-    <t>Desmond Bane</t>
-  </si>
-  <si>
     <t>Steven Adams</t>
   </si>
   <si>
@@ -85,18 +85,18 @@
     <t>Jake LaRavia</t>
   </si>
   <si>
-    <t>Kennedy Chandler</t>
-  </si>
-  <si>
-    <t>Kenneth Lofton Jr. (TW)</t>
-  </si>
-  <si>
     <t>Luke Kennard</t>
   </si>
   <si>
+    <t>Kenneth Lofton Jr.</t>
+  </si>
+  <si>
     <t>Vince Williams Jr. (TW)</t>
   </si>
   <si>
+    <t>Jacob Gilyard (TW)</t>
+  </si>
+  <si>
     <t>PG</t>
   </si>
   <si>
@@ -127,10 +127,13 @@
     <t>6-6</t>
   </si>
   <si>
+    <t>6-3</t>
+  </si>
+  <si>
     <t>6-8</t>
   </si>
   <si>
-    <t>6-3</t>
+    <t>5-9</t>
   </si>
   <si>
     <t>May 10, 1996</t>
@@ -148,21 +151,21 @@
     <t>March 27, 2001</t>
   </si>
   <si>
+    <t>September 15, 1999</t>
+  </si>
+  <si>
+    <t>August 10, 1999</t>
+  </si>
+  <si>
+    <t>January 12, 1999</t>
+  </si>
+  <si>
+    <t>June 25, 1998</t>
+  </si>
+  <si>
     <t>September 19, 1996</t>
   </si>
   <si>
-    <t>September 15, 1999</t>
-  </si>
-  <si>
-    <t>August 10, 1999</t>
-  </si>
-  <si>
-    <t>January 12, 1999</t>
-  </si>
-  <si>
-    <t>June 25, 1998</t>
-  </si>
-  <si>
     <t>July 20, 1993</t>
   </si>
   <si>
@@ -172,18 +175,18 @@
     <t>November 3, 2001</t>
   </si>
   <si>
-    <t>September 16, 2002</t>
+    <t>June 24, 1996</t>
   </si>
   <si>
     <t>August 14, 2002</t>
   </si>
   <si>
-    <t>June 24, 1996</t>
-  </si>
-  <si>
     <t>August 30, 2000</t>
   </si>
   <si>
+    <t>July 14, 1998</t>
+  </si>
+  <si>
     <t>us</t>
   </si>
   <si>
@@ -235,18 +238,18 @@
     <t>Colorado State</t>
   </si>
   <si>
+    <t>Michigan State</t>
+  </si>
+  <si>
+    <t>Murray State</t>
+  </si>
+  <si>
+    <t>TCU</t>
+  </si>
+  <si>
     <t>San Jose State, Gonzaga</t>
   </si>
   <si>
-    <t>Michigan State</t>
-  </si>
-  <si>
-    <t>Murray State</t>
-  </si>
-  <si>
-    <t>TCU</t>
-  </si>
-  <si>
     <t>Pitt</t>
   </si>
   <si>
@@ -256,15 +259,15 @@
     <t>Indiana State University, Wake Forest</t>
   </si>
   <si>
-    <t>Tennessee</t>
-  </si>
-  <si>
     <t>Louisiana Tech</t>
   </si>
   <si>
     <t>VCU</t>
   </si>
   <si>
+    <t>Richmond</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/j/jonesty01.html</t>
   </si>
   <si>
@@ -280,21 +283,21 @@
     <t>https://www.basketball-reference.com/players/r/roddyda01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/j/jacksja02.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/m/moranja01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/t/tillmxa01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/b/banede01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/c/clarkbr01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/j/jacksja02.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/m/moranja01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/t/tillmxa01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/b/banede01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/a/adamsst01.html</t>
   </si>
   <si>
@@ -304,16 +307,16 @@
     <t>https://www.basketball-reference.com/players/l/laravja01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/c/chandke01.html</t>
+    <t>https://www.basketball-reference.com/players/k/kennalu01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/l/loftoke01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/k/kennalu01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/w/willivi01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/g/gilyaja01.html</t>
   </si>
 </sst>
 </file>
@@ -742,19 +745,19 @@
         <v>196</v>
       </c>
       <c r="G2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -777,19 +780,19 @@
         <v>224</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -812,19 +815,19 @@
         <v>225</v>
       </c>
       <c r="G4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -847,19 +850,19 @@
         <v>210</v>
       </c>
       <c r="G5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -882,19 +885,19 @@
         <v>255</v>
       </c>
       <c r="G6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -902,34 +905,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F7">
-        <v>215</v>
+        <v>242</v>
       </c>
       <c r="G7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -937,34 +940,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E8" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F8">
-        <v>242</v>
+        <v>174</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -972,34 +975,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E9" t="s">
         <v>38</v>
       </c>
       <c r="F9">
-        <v>174</v>
+        <v>245</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="J9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1007,34 +1010,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F10">
-        <v>245</v>
+        <v>215</v>
       </c>
       <c r="G10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J10" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1042,34 +1045,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
         <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E11" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F11">
         <v>215</v>
       </c>
       <c r="G11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H11" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1092,19 +1095,19 @@
         <v>265</v>
       </c>
       <c r="G12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1121,25 +1124,25 @@
         <v>29</v>
       </c>
       <c r="E13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F13">
         <v>215</v>
       </c>
       <c r="G13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1156,25 +1159,25 @@
         <v>28</v>
       </c>
       <c r="E14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F14">
         <v>235</v>
       </c>
       <c r="G14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I14" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J14" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1182,34 +1185,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C15" t="s">
         <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E15" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F15">
-        <v>171</v>
+        <v>206</v>
       </c>
       <c r="G15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J15" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1232,19 +1235,19 @@
         <v>275</v>
       </c>
       <c r="G16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I16" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J16" t="s">
         <v>81</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1252,7 +1255,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C17" t="s">
         <v>25</v>
@@ -1261,25 +1264,25 @@
         <v>30</v>
       </c>
       <c r="E17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F17">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I17" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J17" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1287,34 +1290,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C18" t="s">
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E18" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F18">
-        <v>205</v>
+        <v>160</v>
       </c>
       <c r="G18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
